--- a/Backend/controllers/gen/lab.xlsx
+++ b/Backend/controllers/gen/lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{527E9452-1EA1-4817-B1FB-AE19ECB5B4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F047D1A6-A5A5-490E-A8FC-CF62FF6A1328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{155DF6A6-C70C-4157-8A69-13732466DE4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{155DF6A6-C70C-4157-8A69-13732466DE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,12 @@
     <sheet name="L4" sheetId="5" r:id="rId4"/>
     <sheet name="L5" sheetId="6" r:id="rId5"/>
     <sheet name="L6" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="L1 (2)" sheetId="8" r:id="rId7"/>
+    <sheet name="L2 (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="L3 (2)" sheetId="10" r:id="rId9"/>
+    <sheet name="L1 (3)" sheetId="11" r:id="rId10"/>
+    <sheet name="L2 (3)" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="60">
   <si>
     <t>5:00-5:30</t>
   </si>
@@ -909,6 +914,305 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FCF55-D2C3-4F2C-80FA-19251866D20C}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="B11:B14"/>
@@ -930,6 +1234,320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9331D3-789F-4B9F-B5F2-7E3DD3B3D3EF}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0772CD-122F-49AE-9830-56E1B59FCA36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA92C73-7BC2-415A-9EA4-C3CB402160C4}">
   <dimension ref="A1:G20"/>
@@ -1210,6 +1828,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E2:E5"/>
@@ -1219,14 +1845,6 @@
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2032,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173B773A-92FB-45FE-9247-41739107CDB1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2292,7 +2910,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D17:D20"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E9"/>
@@ -2301,19 +2918,907 @@
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D17:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0772CD-122F-49AE-9830-56E1B59FCA36}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC39776-7A1B-46E3-B8DE-E66ECE540F67}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD4C3AF-9D54-4DA7-A89F-DBAB32F75FC0}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0EF75D-1F72-44D2-B35E-08DE5CF4C451}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F13:F16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backend/controllers/gen/lab.xlsx
+++ b/Backend/controllers/gen/lab.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD252BFB-FE6D-4013-9523-C68ACC0692F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="L1" sheetId="2" r:id="rId1"/>
+    <sheet name="L2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +26,193 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+  <si>
+    <t>05:30-06:00</t>
+  </si>
+  <si>
+    <t>05:00-05:30</t>
+  </si>
+  <si>
+    <t>04:30-05:00</t>
+  </si>
+  <si>
+    <t>04:00-04:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-1:IACV (SC)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-1:BDA (SM)</t>
+  </si>
+  <si>
+    <t>03:30-04:00</t>
+  </si>
+  <si>
+    <t>03:00-03:30</t>
+  </si>
+  <si>
+    <t>02:30-03:00</t>
+  </si>
+  <si>
+    <t>02:00-02:30</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>01:00-01:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-2:PDC (VS)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-2:IACV (SC)</t>
+  </si>
+  <si>
+    <t>12:30-01:00</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)PY (PH)</t>
+  </si>
+  <si>
+    <t>(TY-I1)UIUX (NA)</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>09:30-10:00</t>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+  </si>
+  <si>
+    <t>08:30-09:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)I1-1:DAA (MM)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-1:HONORS (AJ)</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Class/Lab</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLT-T(ARJ)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-2:UIUX (NA)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-1:SC (PS)</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:DAA (NA)</t>
+  </si>
+  <si>
+    <t>(SY-I2)I2-2:PY (MS)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-2:BDA (SM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)I2-1:DAA (SC)</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:PY (PT)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT-T (ARJ)</t>
+  </si>
+  <si>
+    <t>(TY-I1)I1-2:MINORS (SSP)</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,12 +231,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +675,733 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DEE0C7-6D3F-4EA3-BC95-E411B5A40445}">
+  <dimension ref="A8:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" style="1"/>
+    <col min="2" max="2" width="45.77734375" style="2"/>
+    <col min="3" max="16384" width="45.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="C19:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB350D31-63DB-4DDA-8797-15159FB325FE}">
+  <dimension ref="A8:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" style="1"/>
+    <col min="2" max="2" width="45.77734375" style="2"/>
+    <col min="3" max="16384" width="45.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
